--- a/outputs/CORVALLIS3.xlsx
+++ b/outputs/CORVALLIS3.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page contains relevant information about contribution, including links to "Contribute.md" and "README.md" files, which are common documentation files that often include guidelines for contributing. Since Abi is motivated to accomplish tasks and tends to gather comprehensive information, they would likely consider finding and reading these files as steps toward understanding how to make a documentation contribution. The presence of clear links and descriptions helps Abi recognize this as a valid and necessary subgoal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a section titled "Want to help?" with a direct reference to the "Contribute.md" file, which is likely to contain information about documentation contributions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would likely read through the available information to understand how to contribute.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page contains numerous files and clearly labeled sections related to documentation contributions, such as "README.md" and "Contribute.md". Abi, who tends to gather comprehensive information before acting, would likely recognize these files as the place to start. Additionally, the "Want to help?" section explicitly mentions the "Contribute.md" file, guiding Abi to the relevant documentation. This clear labeling and guidance align with Abi's preference for process-oriented learning and comprehensive information gathering.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear section titled "Want to help?" with a direct reference to the "Contribute.md" file, which is likely to contain information about documentation contributions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would likely read through the available information to understand how to contribute. The page is structured in a way that makes it easy for Abi to find the relevant information without needing to search extensively.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style, Learning Style
-Why: If Abi searches for documentation and finds the "README.md" or "Contribute.md" files, they will know they are making progress toward their goal. These files are standard places to find contribution guidelines. Additionally, the page explicitly mentions the "Contribute.md" file in the "Want to help?" section, which is a clear indication that Abi is on the right track. The presence of detailed information and clear pointers aligns well with Abi's comprehensive information processing style and preference for process-oriented learning. This will give Abi confidence that they are making progress toward contributing to the documentation.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: If Abi searches for documentation and lands on this page, she will see the "Want to help?" section, which directly references the "Contribute.md" file. This file is likely to contain the necessary information about documentation contributions. The page is well-organized and provides clear guidance, which aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. She will know she is making progress toward her goal and will have access to the information she needs.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Motivations, Information Processing Style, Computer Self-Efficacy
-Why: The page does not provide explicit guidance or instructions for making a documentation contribution to the first .md file. Abi might not automatically think that simply opening and editing the first .md file is a step toward making a documentation contribution without clear instructions. Abi prefers comprehensive information and clear steps due to their low confidence in unfamiliar tasks and risk-averse nature. The page does not clearly convey that contributing to the first .md file directly achieves the goal of making a documentation contribution, which might leave Abi uncertain about whether this action is appropriate.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page lists several .md files, it does not explicitly indicate which file is the most appropriate for making a documentation contribution. Abi, who prefers clear guidance and has low confidence in unfamiliar computing tasks, might not immediately think of contributing to the first .md file without specific instructions. The page does not provide enough context or direction to make Abi feel confident that this is the correct step toward achieving her goal.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Toward Risk, Learning Style
-Why: Abi may not feel confident clicking on the first .md file without clear instructions or guidance indicating that this is the correct step. The page does not provide explicit direction about which .md file to contribute to or what specific action to take next. Given Abi's low confidence in unfamiliar computing tasks and risk-averse nature, they might hesitate to click on the file without more explicit guidance. Abi prefers process-oriented learning, and the lack of clear, step-by-step instructions on the page could make them uncertain about whether this is the right action to take.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit instructions or context about which .md file to click on for making a documentation contribution. Abi, who prefers clear guidance and has low confidence in unfamiliar computing tasks, might not feel confident clicking on the first .md file without specific instructions. Additionally, Abi's process-oriented learning style means she would prefer step-by-step guidance, which is not provided here. The lack of clear direction may cause hesitation or confusion.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: After clicking on the first .md file, Abi lands on a page about "Flosscoach Deployment," which contains detailed steps for deployment rather than instructions for making a documentation contribution. This might confuse Abi, as it does not align with their goal of contributing documentation. The detailed technical instructions could be overwhelming and unrelated to the specific task Abi wants to accomplish. Given Abi's low confidence in unfamiliar tasks and preference for comprehensive information, they might not be sure they are making progress toward their goal and may not find the information they need for contributing documentation. This disconnect can make Abi feel uncertain about their actions and whether they are on the right path.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the first .md file, Abi lands on a page titled "Flosscoach Deployment," which contains detailed technical instructions for deployment rather than information about making a documentation contribution. This page does not provide any indication that Abi is making progress toward her goal of contributing to documentation. The content is highly technical and specific to deployment, which may overwhelm Abi and make her feel uncertain about whether she is on the right track. This does not align with her comprehensive information processing style or her low confidence in unfamiliar computing tasks.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Toward Risk
-Why: The current page is focused on deployment instructions, and there is no clear indication that clicking the "Edit" button will lead to making a documentation contribution. Abi, who has low confidence in unfamiliar tasks and is risk-averse, might be uncertain about what the "Edit" button does in this context. There is no explicit guidance or instruction indicating that clicking "Edit" is the right step toward contributing to documentation. Abi might hesitate to take this action without more direct and clear instructions, fearing that it might not lead to their goal or might cause an error.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page Abi lands on after clicking the first .md file is highly technical and specific to deployment, which may not be immediately relevant to her goal of making a documentation contribution. The "Edit" button is present, but there is no clear indication that clicking it will lead to making a documentation contribution. Abi, who prefers clear guidance and has low confidence in unfamiliar computing tasks, might not feel confident clicking the "Edit" button without specific instructions. Additionally, Abi's process-oriented learning style means she would prefer step-by-step guidance, which is not provided here. The lack of clear direction may cause hesitation or confusion.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Attitude Toward Risk
-Why: If Abi clicks the edit button and lands on the page shown, they might not immediately recognize that they are making progress toward their goal of contributing to documentation. The page contains a lot of information about the project, features, installation, and contributing, but it does not directly indicate that Abi is in an editing mode where they can make documentation contributions. The abundance of information can be overwhelming and may not provide clear guidance on how to proceed with the documentation contribution. Given Abi's low confidence in unfamiliar tasks and preference for comprehensive information, they may feel uncertain about whether they are on the right track and may not find the specific information they need to confidently make a documentation contribution.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Edit" button, Abi lands on a completely different page related to a different project (JabRef) rather than the original project she was working on (Flosscoach). This would be confusing and disorienting for Abi, who prefers clear guidance and has low confidence in unfamiliar computing tasks. The page does not provide any indication that she is making progress toward her goal of contributing to documentation for the original project. This misdirection would likely cause Abi to feel lost and unsure about her actions.</t>
         </is>
       </c>
     </row>
